--- a/biology/Zoologie/Flores_(cheval)/Flores_(cheval).xlsx
+++ b/biology/Zoologie/Flores_(cheval)/Flores_(cheval).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Flores (indonésien : kuda-Flores), ou Timor (indonésien : kuda-Timor), est une race de poney qui vit sur les îles de Florès et de Timor, en Indonésie. Il sert surtout à l'équitation de travail. La race est considérée comme commune.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces poneys sont connus alternativement sous les noms de « Flores » ou de « Timor »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces poneys sont connus alternativement sous les noms de « Flores » ou de « Timor ».
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il appartient au groupe des poneys d'Asie du Sud-Est[2]. De taille réduite, il toise environ 1,25 m d'après Hendricks (Université d'Okklahoma)[3], 1,247 m d'après CAB International (2016)[1], et environ 1,12 m chez les femelles pour 1,15 m chez les mâles d'après la base de données DAD-IS[2]. 
-Son type est proche de celui des poneys chinois[4].
-La robe est souvent baie ou alezane[2],[1]. 
-Ce poney est reconnu pour son caractère doux et patient[5].
-La race a fait l'objet d'une étude visant à déterminer la présence de la mutation du gène DMRT3 à l'origine des allures supplémentaire : cette étude n'a pas permis de détecter la présence de cette mutation chez le Timor ni l'existence de mentions de chevaux ambleurs parmi la race[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il appartient au groupe des poneys d'Asie du Sud-Est. De taille réduite, il toise environ 1,25 m d'après Hendricks (Université d'Okklahoma), 1,247 m d'après CAB International (2016), et environ 1,12 m chez les femelles pour 1,15 m chez les mâles d'après la base de données DAD-IS. 
+Son type est proche de celui des poneys chinois.
+La robe est souvent baie ou alezane,. 
+Ce poney est reconnu pour son caractère doux et patient.
+La race a fait l'objet d'une étude visant à déterminer la présence de la mutation du gène DMRT3 à l'origine des allures supplémentaire : cette étude n'a pas permis de détecter la présence de cette mutation chez le Timor ni l'existence de mentions de chevaux ambleurs parmi la race.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il sert surtout à la selle pour le travail avec le bétail[2], et plus rarement au trait léger[3], la motorisation de ces activités étant très faible dans cette région du monde[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il sert surtout à la selle pour le travail avec le bétail, et plus rarement au trait léger, la motorisation de ces activités étant très faible dans cette région du monde.
 </t>
         </is>
       </c>
@@ -609,10 +627,12 @@
           <t>Diffusion de l'élevage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DAD-IS classe la race comme étant « localement adaptée » à l'Indonésie[2]. Elle est aussi présente en Timor oriental[7], et dans l'Est du Nusatenggara[2]. En 1997, 25 000 poneys de cette race sont recensés[2]. 
-D'après l'évaluation de la FAO réalisée en 2007, la race « kuda-Flores » est « non menacée »[8]. L'étude menée par l'Université d'Uppsala, publiée en août 2010 pour la FAO, signalait le Flores comme race de chevaux locale asiatique qui n'est pas menacée d'extinction[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAD-IS classe la race comme étant « localement adaptée » à l'Indonésie. Elle est aussi présente en Timor oriental, et dans l'Est du Nusatenggara. En 1997, 25 000 poneys de cette race sont recensés. 
+D'après l'évaluation de la FAO réalisée en 2007, la race « kuda-Flores » est « non menacée ». L'étude menée par l'Université d'Uppsala, publiée en août 2010 pour la FAO, signalait le Flores comme race de chevaux locale asiatique qui n'est pas menacée d'extinction.
 </t>
         </is>
       </c>
